--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.fennell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.fennell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B919DC54-A903-AE48-810D-38C9EB00ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D2562-12F1-4F49-93EC-E39169B82DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{E1AB64A1-A5E7-4542-93D8-630FA88E75BF}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{E1AB64A1-A5E7-4542-93D8-630FA88E75BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A86ECD-221F-AF4A-825B-F7CEAF760192}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F97B5F4-E3F4-224D-BC5C-1DE6A658862F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
